--- a/BurnDownVika3.xlsx
+++ b/BurnDownVika3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
@@ -413,7 +413,7 @@
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -431,11 +431,11 @@
         <c:hiLowLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="46453504"/>
-        <c:axId val="49029888"/>
+        <c:axId val="71139712"/>
+        <c:axId val="71141632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="46453504"/>
+        <c:axId val="71139712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -468,7 +468,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49029888"/>
+        <c:crossAx val="71141632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -476,7 +476,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49029888"/>
+        <c:axId val="71141632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -506,7 +506,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46453504"/>
+        <c:crossAx val="71139712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -523,7 +523,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -532,16 +532,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>375397</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>68355</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>577104</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>34737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>106456</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>66114</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>168089</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -918,10 +918,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:Z56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection sqref="A1:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:L3" si="0">E3</f>
+        <f t="shared" ref="F3:J3" si="0">E3</f>
         <v>0</v>
       </c>
       <c r="G3">
@@ -1034,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="E4:L25" si="1">E4</f>
+        <f t="shared" ref="E4:J25" si="1">E4</f>
         <v>0</v>
       </c>
       <c r="G4">
@@ -1259,8 +1262,7 @@
         <v>2</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -1293,8 +1295,7 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -1850,7 +1851,7 @@
       </c>
       <c r="J27">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1881,7 +1882,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
